--- a/sp500-historical-components-and-changes/sp500_announcement_analysis.xlsx
+++ b/sp500-historical-components-and-changes/sp500_announcement_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFFA365-14D3-4541-8C75-CCD9757DFFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAEABFB-6FB7-4C44-BBA3-A4373F1BCD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -88793,8 +88795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
